--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Csf3-Csf3r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Csf3-Csf3r.xlsx
@@ -534,28 +534,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.8066776666666667</v>
+        <v>0.03763333333333333</v>
       </c>
       <c r="H2">
-        <v>2.420033</v>
+        <v>0.1129</v>
       </c>
       <c r="I2">
-        <v>0.826743559601761</v>
+        <v>0.1820809155331632</v>
       </c>
       <c r="J2">
-        <v>0.826743559601761</v>
+        <v>0.1820809155331632</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>402.6612696666667</v>
+        <v>0.02144466666666667</v>
       </c>
       <c r="N2">
-        <v>1207.983809</v>
+        <v>0.064334</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>324.8178534717441</v>
+        <v>0.0008070342888888889</v>
       </c>
       <c r="R2">
-        <v>2923.360681245697</v>
+        <v>0.007263308600000001</v>
       </c>
       <c r="S2">
-        <v>0.826743559601761</v>
+        <v>0.1820809155331632</v>
       </c>
       <c r="T2">
-        <v>0.826743559601761</v>
+        <v>0.1820809155331632</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,22 +602,22 @@
         <v>0.345793</v>
       </c>
       <c r="I3">
-        <v>0.1181315030437071</v>
+        <v>0.5576820728517193</v>
       </c>
       <c r="J3">
-        <v>0.1181315030437071</v>
+        <v>0.5576820728517194</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>402.6612696666667</v>
+        <v>0.02144466666666667</v>
       </c>
       <c r="N3">
-        <v>1207.983809</v>
+        <v>0.064334</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>46.41248280728188</v>
+        <v>0.002471805206888889</v>
       </c>
       <c r="R3">
-        <v>417.712345265537</v>
+        <v>0.022246246862</v>
       </c>
       <c r="S3">
-        <v>0.1181315030437071</v>
+        <v>0.5576820728517193</v>
       </c>
       <c r="T3">
-        <v>0.1181315030437071</v>
+        <v>0.5576820728517194</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,28 +658,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.05378699999999999</v>
+        <v>0.053787</v>
       </c>
       <c r="H4">
         <v>0.161361</v>
       </c>
       <c r="I4">
-        <v>0.05512493735453183</v>
+        <v>0.2602370116151174</v>
       </c>
       <c r="J4">
-        <v>0.05512493735453183</v>
+        <v>0.2602370116151174</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>402.6612696666667</v>
+        <v>0.02144466666666667</v>
       </c>
       <c r="N4">
-        <v>1207.983809</v>
+        <v>0.064334</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>21.657941711561</v>
+        <v>0.001153444286</v>
       </c>
       <c r="R4">
-        <v>194.921475404049</v>
+        <v>0.010380998574</v>
       </c>
       <c r="S4">
-        <v>0.05512493735453183</v>
+        <v>0.2602370116151174</v>
       </c>
       <c r="T4">
-        <v>0.05512493735453183</v>
+        <v>0.2602370116151174</v>
       </c>
     </row>
   </sheetData>
